--- a/biology/Zoologie/Awaous_guamensis/Awaous_guamensis.xlsx
+++ b/biology/Zoologie/Awaous_guamensis/Awaous_guamensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Awaous guamensis est une espèce de gobies originaire des îles du Pacifique, des Mariannes au Vanuatu, en Nouvelle-Calédonie et aux Fidji, où on la trouve dans les eaux douces, saumâtres et marines. 
-Les mâles peuvent atteindre une longueur de 24,5 cm alors que les femelles n'atteignent que 16,5 cm[4]. 
-Des travaux récents basés sur des différences morphologiques et génétiques ont reconnu les populations hawaïennes d’Awaous comme étant distinctes d’Awaous guamensis. Par conséquent, les populations d’Awaous hawaïens sont maintenant reconnus comme une espèce distincte Awaous stamineus[5].
+Les mâles peuvent atteindre une longueur de 24,5 cm alors que les femelles n'atteignent que 16,5 cm. 
+Des travaux récents basés sur des différences morphologiques et génétiques ont reconnu les populations hawaïennes d’Awaous comme étant distinctes d’Awaous guamensis. Par conséquent, les populations d’Awaous hawaïens sont maintenant reconnus comme une espèce distincte Awaous stamineus.
 </t>
         </is>
       </c>
